--- a/spreadsheet/macrofree/wafsg_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/wafsg_checklist.zh-Hant.xlsx
@@ -7045,7 +7045,7 @@
       </c>
       <c r="D201" s="21" t="inlineStr">
         <is>
-          <t>在本地和 Azure 之間配置主動-主動連接時，ExpressRoute 專用線路可保證“99.95%”的可用性。此模式提供更高的 ExpressRoute 連接可用性。此外，還建議配置 BFD 以便在連接發生鏈路故障時更快地進行故障轉移。</t>
+          <t>此模式提供更高的 ExpressRoute 連接可用性。此外，還建議配置 BFD 以便在連接發生鏈路故障時更快地進行故障轉移。</t>
         </is>
       </c>
       <c r="E201" s="21" t="n"/>
@@ -7077,7 +7077,7 @@
       </c>
       <c r="D202" s="21" t="inlineStr">
         <is>
-          <t>創建可用性區域感知型虛擬網路網關以提高復原能力，並在不同區域規劃虛擬網路網關以實現災難恢復和高可用性。</t>
+          <t>創建可用性區域感知型虛擬網路閘道以實現更高的復原能力，並在不同區域中規劃虛擬網路閘道以實現復原能力、災難恢復和高可用性。</t>
         </is>
       </c>
       <c r="E202" s="21" t="n"/>
